--- a/EMR-260 My Experience MPage/My Experience Configuration.xlsx
+++ b/EMR-260 My Experience MPage/My Experience Configuration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Configuration Management</t>
   </si>
@@ -91,6 +91,39 @@
   </si>
   <si>
     <t>Specialty Experience Manager</t>
+  </si>
+  <si>
+    <t>Prefmaint setting</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>PVC_NAME</t>
+  </si>
+  <si>
+    <t>REPORT_NAME</t>
+  </si>
+  <si>
+    <t>pex_mp_myexp_user_driver</t>
+  </si>
+  <si>
+    <t>REPORT_PARAM</t>
+  </si>
+  <si>
+    <t>"MINE","&lt;path to your specific content directory&gt;\pex-mp-myexp-user"</t>
+  </si>
+  <si>
+    <t>Release Considerations</t>
+  </si>
+  <si>
+    <t>For releases prior to Cerner Millennium Administration.100, use the following information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pex_mp_myview_user_driver </t>
+  </si>
+  <si>
+    <t>"MINE","&lt;path to your specific content directory&gt;\pex_mp_myview"</t>
   </si>
 </sst>
 </file>
@@ -233,8 +266,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>274331</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>512456</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>94328</xdr:rowOff>
     </xdr:to>
@@ -553,15 +586,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -643,6 +676,77 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
